--- a/forwardprimer-v3_03.xlsx
+++ b/forwardprimer-v3_03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_03" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F0193-CAGTGCTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTGCTAGTTCGTCGGCAGCGTC</t>
+    <t>F0193-TCACTGCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACTGCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F0194-AACATCGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACATCGTAGTCGTCGGCAGCGTC</t>
+    <t>F0194-CTCTTGCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTTGCTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F0195-GTCACACACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCACACACATCGTCGGCAGCGTC</t>
+    <t>F0195-ATGTCTGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTCTGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F0196-TGTTGCTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTGCTTCTTCGTCGGCAGCGTC</t>
+    <t>F0196-TGTCCAACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCCAACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F0197-ACATGGAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATGGAGTATCGTCGGCAGCGTC</t>
+    <t>F0197-CACTTCAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTTCAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F0198-GGACTTGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGACTTGATGTCGTCGGCAGCGTC</t>
+    <t>F0198-CTACTCCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACTCCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F0199-TACTACCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTACCTTGTCGTCGGCAGCGTC</t>
+    <t>F0199-TTGCTACGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCTACGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F0200-GGTGTTGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTGTTGTAGTCGTCGGCAGCGTC</t>
+    <t>F0200-TCTGTAGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTAGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F0201-TGTACGATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTACGATCCTCGTCGGCAGCGTC</t>
+    <t>F0201-AGGTACTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTACTGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F0202-ACTCGAGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCGAGCAATCGTCGGCAGCGTC</t>
+    <t>F0202-TGTTCGTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCGTGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F0203-CTACCTCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACCTCAGTTCGTCGGCAGCGTC</t>
+    <t>F0203-CCTGCATCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTGCATCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F0204-CTCACACCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCACACCATTCGTCGGCAGCGTC</t>
+    <t>F0204-TACTCGTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTCGTCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F0205-CGTCTAGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTCTAGAACTCGTCGGCAGCGTC</t>
+    <t>F0205-ACTCCTAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCCTAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F0206-CGACACTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGACACTAGTTCGTCGGCAGCGTC</t>
+    <t>F0206-TCCTTCAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTCAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F0207-TCTGCAGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGCAGGTTTCGTCGGCAGCGTC</t>
+    <t>F0207-AGCACTGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCACTGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F0208-CATCCAACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCCAACTCTCGTCGGCAGCGTC</t>
+    <t>F0208-TCTCGTGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCGTGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F0209-ATCGTGTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGTGTAGATCGTCGGCAGCGTC</t>
+    <t>F0209-CTACAACGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACAACGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F0210-CTCGAAGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCGAAGCAATCGTCGGCAGCGTC</t>
+    <t>F0210-CACCACTTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACCACTTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F0211-GTTCGTTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCGTTGAGTCGTCGGCAGCGTC</t>
+    <t>F0211-AGGAAGAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGAAGAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F0212-ATGAGACTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAGACTTGTCGTCGGCAGCGTC</t>
+    <t>F0212-TACTGTGTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTGTGTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F0213-GGAGCTTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAGCTTGTATCGTCGGCAGCGTC</t>
+    <t>F0213-ACAGTGGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGTGGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F0214-TCAGAGTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGAGTTCGTCGTCGGCAGCGTC</t>
+    <t>F0214-TGGTGGTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTGGTTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F0215-CCTCACTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTCACTCAATCGTCGGCAGCGTC</t>
+    <t>F0215-GATCCTACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCCTACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F0216-CATGAGGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGAGGATCTCGTCGGCAGCGTC</t>
+    <t>F0216-GAACTGGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACTGGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F0217-TGAACGAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAACGAACGTCGTCGGCAGCGTC</t>
+    <t>F0217-CATGAGACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGAGACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F0218-GAAGCTAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCTAGGATCGTCGGCAGCGTC</t>
+    <t>F0218-TTGGAACTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGAACTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F0219-GATCCTCGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCCTCGTTTCGTCGGCAGCGTC</t>
+    <t>F0219-AAGTAGGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTAGGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F0220-TTCCTCACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTCACTTTCGTCGGCAGCGTC</t>
+    <t>F0220-TCTCCATGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCCATGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F0221-CAGCTCTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGCTCTTCTTCGTCGGCAGCGTC</t>
+    <t>F0221-TGCATCGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCATCGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F0222-GTCTAGGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTAGGAAGTCGTCGGCAGCGTC</t>
+    <t>F0222-ATCGTACCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGTACCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F0223-AACACAGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACAGTGATCGTCGGCAGCGTC</t>
+    <t>F0223-CACTAGTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTAGTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F0224-AACTCAGAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCAGAGCTCGTCGGCAGCGTC</t>
+    <t>F0224-AGTCAACCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAACCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F0225-AACCTACGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTACGAGTCGTCGGCAGCGTC</t>
+    <t>F0225-GAACACAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACACAAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F0226-TACAAGAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAAGAGGTTCGTCGGCAGCGTC</t>
+    <t>F0226-TGAACTTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAACTTCGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F0227-ACAAGGATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGGATGATCGTCGGCAGCGTC</t>
+    <t>F0227-AAGCAACGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAACGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F0228-AGGAACAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGAACAGATTCGTCGGCAGCGTC</t>
+    <t>F0228-AAGGAACACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGAACACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F0229-TGTGCTGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGCTGGATTCGTCGGCAGCGTC</t>
+    <t>F0229-ACCATCGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCATCGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F0230-GAGCTAGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGCTAGTTCTCGTCGGCAGCGTC</t>
+    <t>F0230-AACGACCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGACCTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F0231-AACACATCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACATCGTTCGTCGGCAGCGTC</t>
+    <t>F0231-TGTCTCATGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTCATGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F0232-AACTACCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTACCACATCGTCGGCAGCGTC</t>
+    <t>F0232-TTCCAGTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCAGTAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F0233-TCGATCAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGATCAGAATCGTCGGCAGCGTC</t>
+    <t>F0233-ACTCAGACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCAGACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F0234-CTGTAGACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTAGACCATCGTCGGCAGCGTC</t>
+    <t>F0234-TAGGATGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGATGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F0235-AGTTCGTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCGTGAGTCGTCGGCAGCGTC</t>
+    <t>F0235-ACTTGACAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTGACAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F0236-ATCTTGGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTTGGATCTCGTCGGCAGCGTC</t>
+    <t>F0236-TTGAACCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGAACCTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F0237-AGTTGATCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGATCGATCGTCGGCAGCGTC</t>
+    <t>F0237-TAGTGACAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGACAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F0238-TGAGGTGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGGTGAGTTCGTCGGCAGCGTC</t>
+    <t>F0238-TGACGAGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACGAGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F0239-CGTTGTTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGTTGAGTCGTCGGCAGCGTC</t>
+    <t>F0239-CGTTGTGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGTGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F0240-CAACGTTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACGTTGTGTCGTCGGCAGCGTC</t>
+    <t>F0240-TAGTCTACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCTACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F0241-GACTGCTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTGCTCATTCGTCGGCAGCGTC</t>
+    <t>F0241-CATCAAGGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCAAGGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F0242-ACAGTACTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTACTTCTCGTCGGCAGCGTC</t>
+    <t>F0242-TAGCAGTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAGTGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F0243-GCTCATCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTCATCAACTCGTCGGCAGCGTC</t>
+    <t>F0243-TACTCGAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTCGAAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F0244-TCCAGGTTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGGTTGTTCGTCGGCAGCGTC</t>
+    <t>F0244-ACCTGATGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTGATGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F0245-CGTTGTGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGTGACATCGTCGGCAGCGTC</t>
+    <t>F0245-AGCAGTGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCAGTGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F0246-GAAGTGATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTGATCGTCGTCGGCAGCGTC</t>
+    <t>F0246-AGAGCATCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGCATCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F0247-ACACAAGTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACAAGTGGTCGTCGGCAGCGTC</t>
+    <t>F0247-AGCACATGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCACATGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F0248-AGACGATCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACGATCCATCGTCGGCAGCGTC</t>
+    <t>F0248-TGAACTCCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAACTCCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F0249-GCAAGAGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGAGATGTCGTCGGCAGCGTC</t>
+    <t>F0249-ACCAGACATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCAGACATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F0250-GAGAGTTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGTTCAATCGTCGGCAGCGTC</t>
+    <t>F0250-AACACTCAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACTCAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F0251-GATGTCAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGTCAGACTCGTCGGCAGCGTC</t>
+    <t>F0251-TGTGGTGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGGTGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F0252-TGAACGACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAACGACTTTCGTCGGCAGCGTC</t>
+    <t>F0252-GATGTGGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGTGGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F0253-CAACCATCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACCATCTGTCGTCGGCAGCGTC</t>
+    <t>F0253-TACCTACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCTACGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F0254-AAGTGGTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGGTAGATCGTCGGCAGCGTC</t>
+    <t>F0254-ACAGCTGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGCTGCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F0255-GTACACTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACACTCGTTCGTCGGCAGCGTC</t>
+    <t>F0255-TACTCCTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTCCTACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F0256-TGCTAGTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTAGTCACTCGTCGGCAGCGTC</t>
+    <t>F0256-GCTCACAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTCACAAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F0257-TGGAGTGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGAGTGGATTCGTCGGCAGCGTC</t>
+    <t>F0257-AGTTGAGCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGAGCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F0258-TTCACATCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCACATCCATCGTCGGCAGCGTC</t>
+    <t>F0258-TGCTTGAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTTGAACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F0259-GGTAGCATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGCATGATCGTCGGCAGCGTC</t>
+    <t>F0259-TACGTCAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGTCAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F0260-ACACAAGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACAAGCATTCGTCGGCAGCGTC</t>
+    <t>F0260-TTCAGGAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGGAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F0261-TGTGACAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGACAGGTTCGTCGGCAGCGTC</t>
+    <t>F0261-TCTTCTAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTCTAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F0262-TAGTGCTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGCTGGATCGTCGGCAGCGTC</t>
+    <t>F0262-GTGACCTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGACCTTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F0263-GTGTAGGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTAGGTCTTCGTCGGCAGCGTC</t>
+    <t>F0263-AACAGCATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGCATCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F0264-ATCACTCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCACTCTGTTCGTCGGCAGCGTC</t>
+    <t>F0264-TGTGTGACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTGACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F0265-AGTCTGCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTGCACTTCGTCGGCAGCGTC</t>
+    <t>F0265-ATGCTTGTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCTTGTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F0266-TGAACAACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAACAACACTCGTCGGCAGCGTC</t>
+    <t>F0266-GGAGATGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAGATGCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F0267-AAGACGTTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACGTTGGTCGTCGGCAGCGTC</t>
+    <t>F0267-TGATCTACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATCTACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F0268-AGGACAACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGACAACCATCGTCGGCAGCGTC</t>
+    <t>F0268-ACAACAGTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACAGTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F0269-CCATCTACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCATCTACAGTCGTCGGCAGCGTC</t>
+    <t>F0269-ATCGTGATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGTGATGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F0270-CTAGTAGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGTAGAGTTCGTCGGCAGCGTC</t>
+    <t>F0270-AACTCTACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCTACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F0271-CTTGCTTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGCTTGCTTCGTCGGCAGCGTC</t>
+    <t>F0271-TCATCCATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATCCATCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F0272-TCCTGTCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGTCTGTTCGTCGGCAGCGTC</t>
+    <t>F0272-GCTTGGACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGGACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F0273-GAAGCAACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCAACTATCGTCGGCAGCGTC</t>
+    <t>F0273-CATCTACGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCTACGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F0274-TCTACCTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTACCTGTCTCGTCGGCAGCGTC</t>
+    <t>F0274-ACAAGACACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGACACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F0275-TTCCTGTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTGTGTATCGTCGGCAGCGTC</t>
+    <t>F0275-CCTAGTGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTAGTGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F0276-CACTAGACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTAGACAGTCGTCGGCAGCGTC</t>
+    <t>F0276-TGGATCTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGATCTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F0277-TCACGACCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACGACCTTTCGTCGGCAGCGTC</t>
+    <t>F0277-GAACCAACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACCAACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F0278-GCATCATCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATCATCTGTCGTCGGCAGCGTC</t>
+    <t>F0278-GTGATGTAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGATGTAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F0279-TAGACTACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGACTACTCTCGTCGGCAGCGTC</t>
+    <t>F0279-AACATCCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACATCCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F0280-TCCACACTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCACACTACTCGTCGGCAGCGTC</t>
+    <t>F0280-GCTTGAGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGAGCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F0281-TGACTGCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACTGCATGTCGTCGGCAGCGTC</t>
+    <t>F0281-GCTACTACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTACTACATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F0282-CTGAACAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGAACAGCTTCGTCGGCAGCGTC</t>
+    <t>F0282-TGACTTGTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACTTGTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F0283-GAGTGATCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGATCGATCGTCGGCAGCGTC</t>
+    <t>F0283-GAACCTGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACCTGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F0284-AACTGGTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTGGTACGTCGTCGGCAGCGTC</t>
+    <t>F0284-TAGTGGTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGGTGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F0285-TCCTGGAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGGAAGATCGTCGGCAGCGTC</t>
+    <t>F0285-GTTGTTCGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGTTCGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F0286-TACAGGACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAGGACAGTCGTCGGCAGCGTC</t>
+    <t>F0286-AGTTCTCGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCTCGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F0287-GAACTCTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACTCTGCTTCGTCGGCAGCGTC</t>
+    <t>F0287-GATCAGGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCAGGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F0288-AGTGTTCCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTTCCTCTCGTCGGCAGCGTC</t>
+    <t>F0288-CGACAAGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGACAAGCTTTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
